--- a/src/test/resources/Testbook.xlsx
+++ b/src/test/resources/Testbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onkar Kolkur\eclipse-workspace\Auto_Framework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2EC5E3-FB59-486E-8198-9E5A18AF66C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B742145E-C920-4B6B-A98B-1753D08390A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Mail ID</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Happy@1199</t>
+  </si>
+  <si>
+    <t>poojakolkur11@gmail.com</t>
+  </si>
+  <si>
+    <t>Test@123</t>
   </si>
 </sst>
 </file>
@@ -365,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -393,10 +399,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{DCABE3F2-BA6A-4563-9172-FDFDD6262468}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{34411463-B339-4490-AF2B-DBC17EA110CC}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{FA878DA0-8722-4D9E-B358-66F1BC4E7BD8}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{99E17315-EAF4-4E0C-9E6C-DACFCBC8A255}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/Testbook.xlsx
+++ b/src/test/resources/Testbook.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onkar Kolkur\eclipse-workspace\Auto_Framework\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onkar Kolkur\eclipse-workspace\myTest_Framework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B742145E-C920-4B6B-A98B-1753D08390A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1567BAAC-04DD-4B02-B150-C554214F60BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,24 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Mail ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>onkarkolkur1999@gmail.com</t>
-  </si>
-  <si>
-    <t>Happy@1199</t>
-  </si>
-  <si>
-    <t>poojakolkur11@gmail.com</t>
-  </si>
-  <si>
-    <t>Test@123</t>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>Virat</t>
+  </si>
+  <si>
+    <t>Kohli</t>
+  </si>
+  <si>
+    <t>kingkingko2423hli@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -370,49 +376,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578ED7AE-E9A3-4E10-ABB3-566911922EB0}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
+    <col min="3" max="3" width="32.7265625" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" customWidth="1"/>
+    <col min="5" max="5" width="22.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>18181818</v>
+      </c>
+      <c r="E2">
+        <v>18181818</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{DCABE3F2-BA6A-4563-9172-FDFDD6262468}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{34411463-B339-4490-AF2B-DBC17EA110CC}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{FA878DA0-8722-4D9E-B358-66F1BC4E7BD8}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{99E17315-EAF4-4E0C-9E6C-DACFCBC8A255}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{3452D7A7-1634-4DA9-85E6-7CFDFF58D659}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
